--- a/ログイン_単体テスト.xlsx
+++ b/ログイン_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6C8490-0984-40E8-8C31-C85BA69C2AB1}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCBABFE3-9D09-4B4E-AD71-06DEFCB236DF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="255">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2952,16 +2952,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.検索エンジンにlocalhost/circlesite/login.phpを入力する</t>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「メールアドレス」は入力必須か確認</t>
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
@@ -3075,6 +3065,23 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.login.phpを入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4996,7 +5003,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5047,7 +5054,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5093,16 +5100,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="G8" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>175</v>
@@ -5131,16 +5138,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>175</v>
@@ -5169,16 +5176,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>175</v>
@@ -5210,13 +5217,13 @@
         <v>236</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G14" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>175</v>
@@ -5248,13 +5255,13 @@
         <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G16" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>175</v>
@@ -5289,10 +5296,10 @@
         <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>175</v>
@@ -5325,10 +5332,10 @@
         <v>219</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G20" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>175</v>
@@ -5355,16 +5362,16 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>175</v>
@@ -5393,16 +5400,16 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>175</v>
@@ -5440,7 +5447,7 @@
         <v>215</v>
       </c>
       <c r="G26" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>175</v>
@@ -5474,13 +5481,13 @@
         <v>209</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G28" s="3">
-        <v>45998</v>
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>175</v>
@@ -5525,13 +5532,13 @@
         <v>206</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G31" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>175</v>
@@ -5560,16 +5567,16 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>175</v>
@@ -5582,7 +5589,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
